--- a/نموذج_المشاركين.xlsx
+++ b/نموذج_المشاركين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840CB28-F817-4D38-A019-7493717BD247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F6C2C-4672-4A0B-85C2-0ABEBADBA051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>الاسم الكامل</t>
   </si>
   <si>
-    <t>الرقم</t>
-  </si>
-  <si>
     <t>أحمد علي</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>خالد يوسف</t>
+  </si>
+  <si>
+    <t>رقم الهوية</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -418,12 +418,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1111111111</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1212121212</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1313131313</v>

--- a/نموذج_المشاركين.xlsx
+++ b/نموذج_المشاركين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F6C2C-4672-4A0B-85C2-0ABEBADBA051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA37C16-7CAA-4BB7-AE15-196C49F29744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/نموذج_المشاركين.xlsx
+++ b/نموذج_المشاركين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA37C16-7CAA-4BB7-AE15-196C49F29744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA264C5A-5791-4F19-A9BC-582BF3E3C678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>الاسم الكامل</t>
-  </si>
-  <si>
     <t>أحمد علي</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>رقم الهوية</t>
+  </si>
+  <si>
+    <t>الاسم</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -415,15 +415,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1111111111</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1212121212</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1313131313</v>
